--- a/capiq_data/in_process_data/IQ386024.xlsx
+++ b/capiq_data/in_process_data/IQ386024.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757E62C-E017-474D-803D-81FB41D4F188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B0C31-CE68-4F9E-92AC-454CD15FF0EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"0bb2e871-9d4e-4c67-9b47-c307131b168f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c38a4059-5f2f-473b-aa56-67c2d027abbd"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>206.166</v>
+        <v>5.4189999999999996</v>
       </c>
       <c r="D2">
-        <v>1310.6020000000001</v>
+        <v>41.052999999999997</v>
       </c>
       <c r="E2">
-        <v>1014.268</v>
+        <v>22.489000000000001</v>
       </c>
       <c r="F2">
-        <v>552.57899999999995</v>
+        <v>20.041</v>
       </c>
       <c r="G2">
-        <v>3518.2339999999999</v>
+        <v>88.222999999999999</v>
       </c>
       <c r="H2">
-        <v>4583.0739999999996</v>
+        <v>109.54</v>
       </c>
       <c r="I2">
-        <v>75.373000000000005</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +892,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>930.726</v>
+        <v>26.722000000000001</v>
       </c>
       <c r="O2">
-        <v>998.64300000000003</v>
+        <v>43.423999999999999</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>223.892</v>
+        <v>9.14</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>104000</v>
+        <v>3164</v>
       </c>
       <c r="T2">
-        <v>3584.431</v>
+        <v>66.116</v>
       </c>
       <c r="U2">
-        <v>1540.9690000000001</v>
+        <v>61.975999999999999</v>
       </c>
       <c r="V2">
-        <v>392.29399999999998</v>
+        <v>13.026999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-14.468</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-77.596000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>206.166</v>
+        <v>5.4189999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>208.327</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="D3">
-        <v>1371.2529999999999</v>
+        <v>43.404000000000003</v>
       </c>
       <c r="E3">
-        <v>1123.1500000000001</v>
+        <v>23.67</v>
       </c>
       <c r="F3">
-        <v>589.077</v>
+        <v>21.035</v>
       </c>
       <c r="G3">
-        <v>3535.8</v>
+        <v>88.772999999999996</v>
       </c>
       <c r="H3">
-        <v>4637.8729999999996</v>
+        <v>111.795</v>
       </c>
       <c r="I3">
-        <v>117.595</v>
+        <v>2.23</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +975,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>801.71299999999997</v>
+        <v>20.536000000000001</v>
       </c>
       <c r="O3">
-        <v>873.68399999999997</v>
+        <v>38.951000000000001</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-247.47</v>
+        <v>-1.01</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>111200</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3764.1889999999999</v>
+        <v>72.843999999999994</v>
       </c>
       <c r="U3">
-        <v>1293.499</v>
+        <v>60.966000000000001</v>
       </c>
       <c r="V3">
-        <v>45.628999999999998</v>
+        <v>1.458</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-49.043999999999997</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-188.947</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>208.327</v>
+        <v>5.5650000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>208.04499999999999</v>
+        <v>5.8470000000000004</v>
       </c>
       <c r="D4">
-        <v>1485.242</v>
+        <v>45.411000000000001</v>
       </c>
       <c r="E4">
-        <v>1227.5920000000001</v>
+        <v>27.579000000000001</v>
       </c>
       <c r="F4">
-        <v>624.37099999999998</v>
+        <v>22.03</v>
       </c>
       <c r="G4">
-        <v>3757.8969999999999</v>
+        <v>99.721000000000004</v>
       </c>
       <c r="H4">
-        <v>4916.7020000000002</v>
+        <v>123.283</v>
       </c>
       <c r="I4">
-        <v>89.057000000000002</v>
+        <v>2.02</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>887.351</v>
+        <v>20.190999999999999</v>
       </c>
       <c r="O4">
-        <v>964.85299999999995</v>
+        <v>40.33</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-100.459</v>
+        <v>6.6929999999999996</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>118300</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3951.8490000000002</v>
+        <v>82.953000000000003</v>
       </c>
       <c r="U4">
-        <v>1193.04</v>
+        <v>67.659000000000006</v>
       </c>
       <c r="V4">
-        <v>215.113</v>
+        <v>6.4850000000000003</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-80.763000000000005</v>
+        <v>2.379</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-198.58500000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>208.04499999999999</v>
+        <v>5.8470000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>227.119</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="D5">
-        <v>1600.954</v>
+        <v>45.502000000000002</v>
       </c>
       <c r="E5">
-        <v>1268.076</v>
+        <v>27.206</v>
       </c>
       <c r="F5">
-        <v>676.06799999999998</v>
+        <v>22.393000000000001</v>
       </c>
       <c r="G5">
-        <v>3812.1970000000001</v>
+        <v>111.264</v>
       </c>
       <c r="H5">
-        <v>5104.1149999999998</v>
+        <v>138.57300000000001</v>
       </c>
       <c r="I5">
-        <v>78.183000000000007</v>
+        <v>3.0110000000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1141,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1040.73</v>
+        <v>23.7</v>
       </c>
       <c r="O5">
-        <v>1164.5930000000001</v>
+        <v>46.076999999999998</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-11.821</v>
+        <v>12.108000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>130400</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3939.5219999999999</v>
+        <v>92.495999999999995</v>
       </c>
       <c r="U5">
-        <v>1181.2190000000001</v>
+        <v>79.766999999999996</v>
       </c>
       <c r="V5">
-        <v>329.34399999999999</v>
+        <v>15.772</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-146.92400000000001</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-50.817</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>227.119</v>
+        <v>6.1079999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>240.12700000000001</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D6">
-        <v>1663.7070000000001</v>
+        <v>43.460999999999999</v>
       </c>
       <c r="E6">
-        <v>1318.67</v>
+        <v>27.966000000000001</v>
       </c>
       <c r="F6">
-        <v>693.01800000000003</v>
+        <v>21.472000000000001</v>
       </c>
       <c r="G6">
-        <v>4085.5059999999999</v>
+        <v>117.33499999999999</v>
       </c>
       <c r="H6">
-        <v>5507.933</v>
+        <v>144.983</v>
       </c>
       <c r="I6">
-        <v>72.204999999999998</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1224,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1209.7049999999999</v>
+        <v>21.698</v>
       </c>
       <c r="O6">
-        <v>1555.047</v>
+        <v>46.191000000000003</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>129.68700000000001</v>
+        <v>5.21</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>137700</v>
+        <v>3925</v>
       </c>
       <c r="T6">
-        <v>3952.886</v>
+        <v>98.792000000000002</v>
       </c>
       <c r="U6">
-        <v>1310.9059999999999</v>
+        <v>84.977000000000004</v>
       </c>
       <c r="V6">
-        <v>285.06599999999997</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>21.276</v>
+        <v>1.157</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-40.911000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>240.12700000000001</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>243.65100000000001</v>
+        <v>7.109</v>
       </c>
       <c r="D7">
-        <v>1711.3489999999999</v>
+        <v>46.484000000000002</v>
       </c>
       <c r="E7">
-        <v>1421.258</v>
+        <v>29.785</v>
       </c>
       <c r="F7">
-        <v>726.82899999999995</v>
+        <v>22.295000000000002</v>
       </c>
       <c r="G7">
-        <v>4196.7420000000002</v>
+        <v>127.072</v>
       </c>
       <c r="H7">
-        <v>5668.125</v>
+        <v>154.321</v>
       </c>
       <c r="I7">
-        <v>109.983</v>
+        <v>3.56</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1307,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1021.245</v>
+        <v>22.364000000000001</v>
       </c>
       <c r="O7">
-        <v>1300.876</v>
+        <v>47.368000000000002</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.629000000000001</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>140500</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>4367.2489999999998</v>
+        <v>106.953</v>
       </c>
       <c r="U7">
-        <v>1328.5350000000001</v>
+        <v>91.186000000000007</v>
       </c>
       <c r="V7">
-        <v>101.76300000000001</v>
+        <v>7.5250000000000004</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>7.117</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-27.161999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>243.65100000000001</v>
+        <v>7.109</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>251.93199999999999</v>
+        <v>8.6470000000000002</v>
       </c>
       <c r="D8">
-        <v>1795.22</v>
+        <v>54.357999999999997</v>
       </c>
       <c r="E8">
-        <v>1503.8869999999999</v>
+        <v>38.115000000000002</v>
       </c>
       <c r="F8">
-        <v>764.33100000000002</v>
+        <v>25.01</v>
       </c>
       <c r="G8">
-        <v>4152.3519999999999</v>
+        <v>149.94399999999999</v>
       </c>
       <c r="H8">
-        <v>5654.2190000000001</v>
+        <v>180.792</v>
       </c>
       <c r="I8">
-        <v>104.411</v>
+        <v>4.6070000000000002</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1390,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1151.095</v>
+        <v>32.107999999999997</v>
       </c>
       <c r="O8">
-        <v>1561.886</v>
+        <v>57.698999999999998</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-278.29000000000002</v>
+        <v>12.657</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>145200</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>4092.3330000000001</v>
+        <v>123.093</v>
       </c>
       <c r="U8">
-        <v>1050.2449999999999</v>
+        <v>103.843</v>
       </c>
       <c r="V8">
-        <v>324.10000000000002</v>
+        <v>12.851000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-348.52</v>
+        <v>5.3049999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-151.99199999999999</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>251.93199999999999</v>
+        <v>8.6470000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>276.90100000000001</v>
+        <v>9.6669999999999998</v>
       </c>
       <c r="D9">
-        <v>1891.6880000000001</v>
+        <v>61.232999999999997</v>
       </c>
       <c r="E9">
-        <v>1577.1949999999999</v>
+        <v>39.356999999999999</v>
       </c>
       <c r="F9">
-        <v>779.79</v>
+        <v>28.263000000000002</v>
       </c>
       <c r="G9">
-        <v>4541.5309999999999</v>
+        <v>169.316</v>
       </c>
       <c r="H9">
-        <v>6107.0389999999998</v>
+        <v>200.77600000000001</v>
       </c>
       <c r="I9">
-        <v>111.42</v>
+        <v>4.8170000000000002</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1473,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1275.588</v>
+        <v>32.682000000000002</v>
       </c>
       <c r="O9">
-        <v>1534.6690000000001</v>
+        <v>58.154000000000003</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>274.49400000000003</v>
+        <v>19.239000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>150400</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>4572.37</v>
+        <v>142.62200000000001</v>
       </c>
       <c r="U9">
-        <v>1324.739</v>
+        <v>123.08199999999999</v>
       </c>
       <c r="V9">
-        <v>384.86</v>
+        <v>15.21</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-25.649000000000001</v>
+        <v>6.9809999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2.4319999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>276.90100000000001</v>
+        <v>9.6669999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>278.779</v>
+        <v>9.1389999999999993</v>
       </c>
       <c r="D10">
-        <v>1948.2149999999999</v>
+        <v>67.010999999999996</v>
       </c>
       <c r="E10">
-        <v>1528.7460000000001</v>
+        <v>41.005000000000003</v>
       </c>
       <c r="F10">
-        <v>797.28099999999995</v>
+        <v>30.817</v>
       </c>
       <c r="G10">
-        <v>4814.2939999999999</v>
+        <v>175.834</v>
       </c>
       <c r="H10">
-        <v>6521.5709999999999</v>
+        <v>231.47300000000001</v>
       </c>
       <c r="I10">
-        <v>108.70699999999999</v>
+        <v>6.9480000000000004</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1556,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1377.33</v>
+        <v>41.487000000000002</v>
       </c>
       <c r="O10">
-        <v>1667.1880000000001</v>
+        <v>65.992000000000004</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>245.33799999999999</v>
+        <v>3.129</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>156700</v>
+        <v>6165</v>
       </c>
       <c r="T10">
-        <v>4854.3829999999998</v>
+        <v>165.48099999999999</v>
       </c>
       <c r="U10">
-        <v>1570.077</v>
+        <v>126.211</v>
       </c>
       <c r="V10">
-        <v>361.86</v>
+        <v>21.096</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>24.064</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1.0349999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>278.779</v>
+        <v>9.1389999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>284.209</v>
+        <v>10.178000000000001</v>
       </c>
       <c r="D11">
-        <v>2020.7380000000001</v>
+        <v>74.516000000000005</v>
       </c>
       <c r="E11">
-        <v>1702.3340000000001</v>
+        <v>46.832999999999998</v>
       </c>
       <c r="F11">
-        <v>820.77300000000002</v>
+        <v>33.557000000000002</v>
       </c>
       <c r="G11">
-        <v>4836.6400000000003</v>
+        <v>182.542</v>
       </c>
       <c r="H11">
-        <v>6709.3019999999997</v>
+        <v>241.69200000000001</v>
       </c>
       <c r="I11">
-        <v>132.501</v>
+        <v>5.6429999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1639,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1225.8430000000001</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="O11">
-        <v>1493.3679999999999</v>
+        <v>62.061999999999998</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-95.216999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>162700</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>5215.9340000000002</v>
+        <v>179.63</v>
       </c>
       <c r="U11">
-        <v>1474.86</v>
+        <v>126.64700000000001</v>
       </c>
       <c r="V11">
-        <v>73.468000000000004</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>16.931999999999999</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>25.587</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>284.209</v>
+        <v>10.178000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>300.41000000000003</v>
+        <v>13.502000000000001</v>
       </c>
       <c r="D12">
-        <v>2161.2399999999998</v>
+        <v>87.445999999999998</v>
       </c>
       <c r="E12">
-        <v>1785.2270000000001</v>
+        <v>52.234000000000002</v>
       </c>
       <c r="F12">
-        <v>889.22699999999998</v>
+        <v>40.247</v>
       </c>
       <c r="G12">
-        <v>5133.9610000000002</v>
+        <v>203.85900000000001</v>
       </c>
       <c r="H12">
-        <v>7012.32</v>
+        <v>271.41199999999998</v>
       </c>
       <c r="I12">
-        <v>94.069000000000003</v>
+        <v>6.8390000000000004</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1357.297</v>
+        <v>41.591000000000001</v>
       </c>
       <c r="O12">
-        <v>1688.5719999999999</v>
+        <v>68.015000000000001</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>203.345</v>
+        <v>11.092000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>164300</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>5323.7479999999996</v>
+        <v>203.39699999999999</v>
       </c>
       <c r="U12">
-        <v>1678.2049999999999</v>
+        <v>137.739</v>
       </c>
       <c r="V12">
-        <v>365.55700000000002</v>
+        <v>16.271000000000001</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-106.313</v>
+        <v>6.1429999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>22.286000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>300.41000000000003</v>
+        <v>13.502000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>319.62700000000001</v>
+        <v>15.96</v>
       </c>
       <c r="D13">
-        <v>2305.723</v>
+        <v>98.111000000000004</v>
       </c>
       <c r="E13">
-        <v>1891.1859999999999</v>
+        <v>61.734000000000002</v>
       </c>
       <c r="F13">
-        <v>923.38699999999994</v>
+        <v>45.143000000000001</v>
       </c>
       <c r="G13">
-        <v>5739.2049999999999</v>
+        <v>242.87</v>
       </c>
       <c r="H13">
-        <v>7617.1490000000003</v>
+        <v>313.99299999999999</v>
       </c>
       <c r="I13">
-        <v>114.825</v>
+        <v>6.2889999999999997</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1602.038</v>
+        <v>49.57</v>
       </c>
       <c r="O13">
-        <v>1968.873</v>
+        <v>77.024000000000001</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>352.91399999999999</v>
+        <v>22.01</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>166400</v>
+        <v>7000</v>
       </c>
       <c r="T13">
-        <v>5648.2759999999998</v>
+        <v>236.96899999999999</v>
       </c>
       <c r="U13">
-        <v>2031.1189999999999</v>
+        <v>159.749</v>
       </c>
       <c r="V13">
-        <v>478.87799999999999</v>
+        <v>18.962</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>28.332000000000001</v>
+        <v>9.3179999999999996</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-119.42700000000001</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>319.62700000000001</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>324.33199999999999</v>
+        <v>17.725000000000001</v>
       </c>
       <c r="D14">
-        <v>2355.4879999999998</v>
+        <v>108.158</v>
       </c>
       <c r="E14">
-        <v>1875.2719999999999</v>
+        <v>61.795999999999999</v>
       </c>
       <c r="F14">
-        <v>944.33299999999997</v>
+        <v>49.56</v>
       </c>
       <c r="G14">
-        <v>6147.8819999999996</v>
+        <v>283.20800000000003</v>
       </c>
       <c r="H14">
-        <v>8134.7179999999998</v>
+        <v>365.3</v>
       </c>
       <c r="I14">
-        <v>113.39400000000001</v>
+        <v>9.423</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1774.508</v>
+        <v>62.636000000000003</v>
       </c>
       <c r="O14">
-        <v>1998.9269999999999</v>
+        <v>91.23</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>181.887</v>
+        <v>34.472000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>171400</v>
+        <v>9240</v>
       </c>
       <c r="T14">
-        <v>6135.7910000000002</v>
+        <v>274.07</v>
       </c>
       <c r="U14">
-        <v>2213.0059999999999</v>
+        <v>194.221</v>
       </c>
       <c r="V14">
-        <v>505.87299999999999</v>
+        <v>37.902000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>30.181999999999999</v>
+        <v>6.5430000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-203.77799999999999</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>324.33199999999999</v>
+        <v>17.725000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>348.9</v>
+        <v>19.788</v>
       </c>
       <c r="D15">
-        <v>2422.3000000000002</v>
+        <v>119.744</v>
       </c>
       <c r="E15">
-        <v>1970.954</v>
+        <v>84.231999999999999</v>
       </c>
       <c r="F15">
-        <v>989.9</v>
+        <v>54.734000000000002</v>
       </c>
       <c r="G15">
-        <v>6290.74</v>
+        <v>307.041</v>
       </c>
       <c r="H15">
-        <v>8279.2990000000009</v>
+        <v>389.35</v>
       </c>
       <c r="I15">
-        <v>176.374</v>
+        <v>8.468</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1971,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1502.866</v>
+        <v>62.838999999999999</v>
       </c>
       <c r="O15">
-        <v>1656.3420000000001</v>
+        <v>85.137</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-277</v>
+        <v>-55.286000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>178600</v>
+        <v>9700</v>
       </c>
       <c r="T15">
-        <v>6622.9570000000003</v>
+        <v>304.21300000000002</v>
       </c>
       <c r="U15">
-        <v>1935.991</v>
+        <v>161.98500000000001</v>
       </c>
       <c r="V15">
-        <v>157.30000000000001</v>
+        <v>2.7589999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-6.5</v>
+        <v>4.5430000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-388.8</v>
+        <v>-59.923999999999999</v>
       </c>
       <c r="AA15">
-        <v>348.9</v>
+        <v>19.788</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>371.9</v>
+        <v>23.800999999999998</v>
       </c>
       <c r="D16">
-        <v>2517.1</v>
+        <v>138.71899999999999</v>
       </c>
       <c r="E16">
-        <v>2120.58</v>
+        <v>90.037999999999997</v>
       </c>
       <c r="F16">
-        <v>1017.6</v>
+        <v>63.161000000000001</v>
       </c>
       <c r="G16">
-        <v>6740.69</v>
+        <v>360.20499999999998</v>
       </c>
       <c r="H16">
-        <v>8687.2939999999999</v>
+        <v>442.68299999999999</v>
       </c>
       <c r="I16">
-        <v>119.145</v>
+        <v>9.1690000000000005</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1567.662</v>
+        <v>72.625</v>
       </c>
       <c r="O16">
-        <v>1696.4649999999999</v>
+        <v>93.134</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>56.4</v>
+        <v>33.917000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>187400</v>
+        <v>11000</v>
       </c>
       <c r="T16">
-        <v>6990.8289999999997</v>
+        <v>349.54899999999998</v>
       </c>
       <c r="U16">
-        <v>1992.442</v>
+        <v>197.02699999999999</v>
       </c>
       <c r="V16">
-        <v>408.3</v>
+        <v>30.805</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-93.5</v>
+        <v>8.3520000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-208.9</v>
+        <v>-1.125</v>
       </c>
       <c r="AA16">
-        <v>371.9</v>
+        <v>23.800999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>355.6</v>
+        <v>26.052</v>
       </c>
       <c r="D17">
-        <v>2581</v>
+        <v>155.429</v>
       </c>
       <c r="E17">
-        <v>2147.1309999999999</v>
+        <v>103.733</v>
       </c>
       <c r="F17">
-        <v>1011.2</v>
+        <v>70.843999999999994</v>
       </c>
       <c r="G17">
-        <v>7260.0259999999998</v>
+        <v>412.00400000000002</v>
       </c>
       <c r="H17">
-        <v>9227.0429999999997</v>
+        <v>506.84199999999998</v>
       </c>
       <c r="I17">
-        <v>130.04</v>
+        <v>11.739000000000001</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1741.4639999999999</v>
+        <v>96.284000000000006</v>
       </c>
       <c r="O17">
-        <v>1845.3330000000001</v>
+        <v>112.733</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>625.20000000000005</v>
+        <v>53.143000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>199700</v>
+        <v>13000</v>
       </c>
       <c r="T17">
-        <v>7381.71</v>
+        <v>394.10899999999998</v>
       </c>
       <c r="U17">
-        <v>2617.6190000000001</v>
+        <v>250.37</v>
       </c>
       <c r="V17">
-        <v>583.20000000000005</v>
+        <v>41.972000000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-8.4</v>
+        <v>10.804</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>120.1</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="AA17">
-        <v>355.6</v>
+        <v>26.052</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>362.9</v>
+        <v>30.602</v>
       </c>
       <c r="D18">
-        <v>2742.2</v>
+        <v>172.78100000000001</v>
       </c>
       <c r="E18">
-        <v>2293.3000000000002</v>
+        <v>110.517</v>
       </c>
       <c r="F18">
-        <v>1102.8</v>
+        <v>78.123999999999995</v>
       </c>
       <c r="G18">
-        <v>6420.6</v>
+        <v>453.99700000000001</v>
       </c>
       <c r="H18">
-        <v>11479</v>
+        <v>572.745</v>
       </c>
       <c r="I18">
-        <v>145.69999999999999</v>
+        <v>11.19</v>
       </c>
       <c r="J18">
-        <v>937.5</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2592.1</v>
+        <v>115.06</v>
       </c>
       <c r="O18">
-        <v>3738.8</v>
+        <v>119.21599999999999</v>
       </c>
       <c r="P18">
-        <v>1637.5</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-607.5</v>
+        <v>23.151</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>211500</v>
+        <v>15300</v>
       </c>
       <c r="T18">
-        <v>7740.2</v>
+        <v>453.529</v>
       </c>
       <c r="U18">
-        <v>2010.1</v>
+        <v>199.29599999999999</v>
       </c>
       <c r="V18">
-        <v>324.2</v>
+        <v>51.796999999999997</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1611.8</v>
+        <v>13.069000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>220.5</v>
+        <v>-19.925000000000001</v>
       </c>
       <c r="AA18">
-        <v>362.9</v>
+        <v>30.602</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>382.9</v>
+        <v>31.978000000000002</v>
       </c>
       <c r="D19">
-        <v>2911.4</v>
+        <v>181.68100000000001</v>
       </c>
       <c r="E19">
-        <v>2448.1</v>
+        <v>131.19399999999999</v>
       </c>
       <c r="F19">
-        <v>1184.2</v>
+        <v>83.686999999999998</v>
       </c>
       <c r="G19">
-        <v>6406.5</v>
+        <v>482.37900000000002</v>
       </c>
       <c r="H19">
-        <v>11383.4</v>
+        <v>604.84699999999998</v>
       </c>
       <c r="I19">
-        <v>181.4</v>
+        <v>13.106999999999999</v>
       </c>
       <c r="J19">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-13.1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1884.1</v>
+        <v>96.534000000000006</v>
       </c>
       <c r="O19">
-        <v>3204.9</v>
+        <v>97.760999999999996</v>
       </c>
       <c r="P19">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-738.7</v>
+        <v>-24.308</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>217700</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>8178.5</v>
+        <v>507.08600000000001</v>
       </c>
       <c r="U19">
-        <v>1271.4000000000001</v>
+        <v>174.988</v>
       </c>
       <c r="V19">
-        <v>189.3</v>
+        <v>-0.39400000000000002</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-557.29999999999995</v>
+        <v>11.182</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-306</v>
+        <v>-24.702999999999999</v>
       </c>
       <c r="AA19">
-        <v>382.9</v>
+        <v>31.978000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>420.1</v>
+        <v>36.031999999999996</v>
       </c>
       <c r="D20">
-        <v>3085.1</v>
+        <v>211.71100000000001</v>
       </c>
       <c r="E20">
-        <v>2548.6999999999998</v>
+        <v>165.678</v>
       </c>
       <c r="F20">
-        <v>1240.3</v>
+        <v>93.942999999999998</v>
       </c>
       <c r="G20">
-        <v>6771.4</v>
+        <v>531.85799999999995</v>
       </c>
       <c r="H20">
-        <v>11797.6</v>
+        <v>683.20799999999997</v>
       </c>
       <c r="I20">
-        <v>169</v>
+        <v>16.363</v>
       </c>
       <c r="J20">
-        <v>912.5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1956.5</v>
+        <v>118.02</v>
       </c>
       <c r="O20">
-        <v>3256.8</v>
+        <v>118.02</v>
       </c>
       <c r="P20">
-        <v>1062.5</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-182.1</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>218000</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>8540.7999999999993</v>
+        <v>565.18799999999999</v>
       </c>
       <c r="U20">
-        <v>1089.3</v>
+        <v>180.12299999999999</v>
       </c>
       <c r="V20">
-        <v>456.1</v>
+        <v>31.055</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-149.1</v>
+        <v>11.829000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-413.9</v>
+        <v>-7.9640000000000004</v>
       </c>
       <c r="AA20">
-        <v>420.1</v>
+        <v>36.031999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>397.2</v>
+        <v>40.582999999999998</v>
       </c>
       <c r="D21">
-        <v>3187</v>
+        <v>235.536</v>
       </c>
       <c r="E21">
-        <v>2556.6</v>
+        <v>171.58799999999999</v>
       </c>
       <c r="F21">
-        <v>1252.4000000000001</v>
+        <v>107.361</v>
       </c>
       <c r="G21">
-        <v>7237.9</v>
+        <v>591.86</v>
       </c>
       <c r="H21">
-        <v>12267.6</v>
+        <v>771.73599999999999</v>
       </c>
       <c r="I21">
-        <v>160.1</v>
+        <v>15.004</v>
       </c>
       <c r="J21">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2128.4</v>
+        <v>130.089</v>
       </c>
       <c r="O21">
-        <v>3440.6</v>
+        <v>130.089</v>
       </c>
       <c r="P21">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>387.4</v>
+        <v>34.786000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>219300</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>8827</v>
+        <v>641.64700000000005</v>
       </c>
       <c r="U21">
-        <v>1476.7</v>
+        <v>214.90899999999999</v>
       </c>
       <c r="V21">
-        <v>817.9</v>
+        <v>62.899000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-248.5</v>
+        <v>11.476000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-111.8</v>
+        <v>-6.8220000000000001</v>
       </c>
       <c r="AA21">
-        <v>397.2</v>
+        <v>40.582999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>423.8</v>
+        <v>57.673000000000002</v>
       </c>
       <c r="D22">
-        <v>3232.5</v>
+        <v>256.90199999999999</v>
       </c>
       <c r="E22">
-        <v>2622</v>
+        <v>176.696</v>
       </c>
       <c r="F22">
-        <v>1299.0999999999999</v>
+        <v>120.92400000000001</v>
       </c>
       <c r="G22">
-        <v>7909</v>
+        <v>663.423</v>
       </c>
       <c r="H22">
-        <v>13061</v>
+        <v>869.89300000000003</v>
       </c>
       <c r="I22">
-        <v>165</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="J22">
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2714</v>
+        <v>153.79499999999999</v>
       </c>
       <c r="O22">
-        <v>3783</v>
+        <v>155.74799999999999</v>
       </c>
       <c r="P22">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>648.4</v>
+        <v>-17.971</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>221700</v>
+        <v>24300</v>
       </c>
       <c r="T22">
-        <v>9278</v>
+        <v>714.14499999999998</v>
       </c>
       <c r="U22">
-        <v>2125</v>
+        <v>196.93799999999999</v>
       </c>
       <c r="V22">
-        <v>689.7</v>
+        <v>66.2</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>306.89999999999998</v>
+        <v>12.964</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-264.3</v>
+        <v>-73.475999999999999</v>
       </c>
       <c r="AA22">
-        <v>423.8</v>
+        <v>57.673000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>441</v>
+        <v>47.164000000000001</v>
       </c>
       <c r="D23">
-        <v>3202</v>
+        <v>285.47899999999998</v>
       </c>
       <c r="E23">
-        <v>2751.3</v>
+        <v>217.68299999999999</v>
       </c>
       <c r="F23">
-        <v>1287</v>
+        <v>126.89100000000001</v>
       </c>
       <c r="G23">
-        <v>7570.9</v>
+        <v>709.13300000000004</v>
       </c>
       <c r="H23">
-        <v>12735.9</v>
+        <v>934.327</v>
       </c>
       <c r="I23">
-        <v>213.2</v>
+        <v>21.439</v>
       </c>
       <c r="J23">
-        <v>858.4</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2050.4</v>
+        <v>138.874</v>
       </c>
       <c r="O23">
-        <v>3123.6</v>
+        <v>141.17599999999999</v>
       </c>
       <c r="P23">
-        <v>1020.9</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-601</v>
+        <v>-31.576000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>233000</v>
+        <v>26750</v>
       </c>
       <c r="T23">
-        <v>9612.2999999999993</v>
+        <v>793.15099999999995</v>
       </c>
       <c r="U23">
-        <v>1523.8</v>
+        <v>165.36199999999999</v>
       </c>
       <c r="V23">
-        <v>72</v>
+        <v>-3.927</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-471</v>
+        <v>22.667000000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-94</v>
+        <v>-30.122</v>
       </c>
       <c r="AA23">
-        <v>441</v>
+        <v>47.164000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>252</v>
+        <v>55.070999999999998</v>
       </c>
       <c r="D24">
-        <v>3370</v>
+        <v>336.83600000000001</v>
       </c>
       <c r="E24">
-        <v>2878.5</v>
+        <v>266.25900000000001</v>
       </c>
       <c r="F24">
-        <v>1332</v>
+        <v>148.51599999999999</v>
       </c>
       <c r="G24">
-        <v>7758.9</v>
+        <v>811.59</v>
       </c>
       <c r="H24">
-        <v>13140.1</v>
+        <v>1046.066</v>
       </c>
       <c r="I24">
-        <v>164.5</v>
+        <v>24.870999999999999</v>
       </c>
       <c r="J24">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2120</v>
+        <v>169.32</v>
       </c>
       <c r="O24">
-        <v>3277.2</v>
+        <v>171.87299999999999</v>
       </c>
       <c r="P24">
-        <v>908.8</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>160</v>
+        <v>37.743000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>244300</v>
+        <v>29675</v>
       </c>
       <c r="T24">
-        <v>9862.9</v>
+        <v>874.19299999999998</v>
       </c>
       <c r="U24">
-        <v>1684.5</v>
+        <v>203.10499999999999</v>
       </c>
       <c r="V24">
-        <v>366</v>
+        <v>51.598999999999997</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-150</v>
+        <v>14.768000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>124</v>
+        <v>-7.91</v>
       </c>
       <c r="AA24">
-        <v>252</v>
+        <v>55.070999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>444</v>
+        <v>61.027000000000001</v>
       </c>
       <c r="D25">
-        <v>3453</v>
+        <v>377.52199999999999</v>
       </c>
       <c r="E25">
-        <v>2915.7</v>
+        <v>296.72199999999998</v>
       </c>
       <c r="F25">
-        <v>1376</v>
+        <v>169.095</v>
       </c>
       <c r="G25">
-        <v>8199.7999999999993</v>
+        <v>921.21699999999998</v>
       </c>
       <c r="H25">
-        <v>13716.7</v>
+        <v>1182.5119999999999</v>
       </c>
       <c r="I25">
-        <v>171.5</v>
+        <v>27.648</v>
       </c>
       <c r="J25">
-        <v>821.6</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2300.6999999999998</v>
+        <v>213.28100000000001</v>
       </c>
       <c r="O25">
-        <v>3424.4</v>
+        <v>215.95400000000001</v>
       </c>
       <c r="P25">
-        <v>896.6</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-134</v>
+        <v>-5.4050000000000002</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>255800</v>
+        <v>34350</v>
       </c>
       <c r="T25">
-        <v>10292.299999999999</v>
+        <v>966.55799999999999</v>
       </c>
       <c r="U25">
-        <v>1550.3</v>
+        <v>197.7</v>
       </c>
       <c r="V25">
-        <v>603</v>
+        <v>86.745999999999995</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-127</v>
+        <v>20.96</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-505</v>
+        <v>-72.218999999999994</v>
       </c>
       <c r="AA25">
-        <v>444</v>
+        <v>61.027000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>416</v>
+        <v>69.533000000000001</v>
       </c>
       <c r="D26">
-        <v>3462</v>
+        <v>424.43</v>
       </c>
       <c r="E26">
-        <v>2905</v>
+        <v>298.47500000000002</v>
       </c>
       <c r="F26">
-        <v>1384</v>
+        <v>191.84200000000001</v>
       </c>
       <c r="G26">
-        <v>8600</v>
+        <v>1040.3910000000001</v>
       </c>
       <c r="H26">
-        <v>14262</v>
+        <v>1325.981</v>
       </c>
       <c r="I26">
-        <v>175</v>
+        <v>27.838999999999999</v>
       </c>
       <c r="J26">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2418</v>
+        <v>249.50299999999999</v>
       </c>
       <c r="O26">
-        <v>3534</v>
+        <v>252.482</v>
       </c>
       <c r="P26">
-        <v>878</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>484</v>
+        <v>68.236999999999995</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>260200</v>
+        <v>38800</v>
       </c>
       <c r="T26">
-        <v>10728</v>
+        <v>1073.499</v>
       </c>
       <c r="U26">
-        <v>2034</v>
+        <v>265.93700000000001</v>
       </c>
       <c r="V26">
-        <v>604</v>
+        <v>118.458</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>5</v>
+        <v>24.5</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>146</v>
+        <v>-42.58</v>
       </c>
       <c r="AA26">
-        <v>416</v>
+        <v>69.533000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>557</v>
+        <v>75.445999999999998</v>
       </c>
       <c r="D27">
-        <v>3546</v>
+        <v>460.27</v>
       </c>
       <c r="E27">
-        <v>3039</v>
+        <v>347.76299999999998</v>
       </c>
       <c r="F27">
-        <v>1352</v>
+        <v>205.36099999999999</v>
       </c>
       <c r="G27">
-        <v>7842</v>
+        <v>1137.5930000000001</v>
       </c>
       <c r="H27">
-        <v>13629</v>
+        <v>1444.69</v>
       </c>
       <c r="I27">
-        <v>189</v>
+        <v>36.935000000000002</v>
       </c>
       <c r="J27">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2585</v>
+        <v>239.334</v>
       </c>
       <c r="O27">
-        <v>3646</v>
+        <v>247.36099999999999</v>
       </c>
       <c r="P27">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-726</v>
+        <v>7.101</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>261200</v>
+        <v>43400</v>
       </c>
       <c r="T27">
-        <v>9983</v>
+        <v>1197.329</v>
       </c>
       <c r="U27">
-        <v>1308</v>
+        <v>273.03800000000001</v>
       </c>
       <c r="V27">
-        <v>277</v>
+        <v>12.483000000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-1124</v>
+        <v>40.6</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>163</v>
+        <v>-17.670000000000002</v>
       </c>
       <c r="AA27">
-        <v>557</v>
+        <v>75.445999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>470</v>
+        <v>82.277000000000001</v>
       </c>
       <c r="D28">
-        <v>3670</v>
+        <v>516.51400000000001</v>
       </c>
       <c r="E28">
-        <v>3089</v>
+        <v>403.59899999999999</v>
       </c>
       <c r="F28">
-        <v>1409</v>
+        <v>224.18799999999999</v>
       </c>
       <c r="G28">
-        <v>8099</v>
+        <v>1229.57</v>
       </c>
       <c r="H28">
-        <v>13938</v>
+        <v>1584.354</v>
       </c>
       <c r="I28">
-        <v>179</v>
+        <v>24.619</v>
       </c>
       <c r="J28">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2415</v>
+        <v>259.11900000000003</v>
       </c>
       <c r="O28">
-        <v>3455</v>
+        <v>267.11099999999999</v>
       </c>
       <c r="P28">
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-151</v>
+        <v>-4.0529999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>256800</v>
+        <v>45550</v>
       </c>
       <c r="T28">
-        <v>10483</v>
+        <v>1317.2429999999999</v>
       </c>
       <c r="U28">
-        <v>1157</v>
+        <v>268.98500000000001</v>
       </c>
       <c r="V28">
-        <v>521</v>
+        <v>52.037999999999997</v>
       </c>
       <c r="W28">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-297</v>
+        <v>25.789000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-329</v>
+        <v>-40.353000000000002</v>
       </c>
       <c r="AA28">
-        <v>470</v>
+        <v>82.277000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>495</v>
+        <v>96.153999999999996</v>
       </c>
       <c r="D29">
-        <v>3766</v>
+        <v>558.83699999999999</v>
       </c>
       <c r="E29">
-        <v>3292</v>
+        <v>428.50099999999998</v>
       </c>
       <c r="F29">
-        <v>1429</v>
+        <v>241.55099999999999</v>
       </c>
       <c r="G29">
-        <v>8557</v>
+        <v>1353.5940000000001</v>
       </c>
       <c r="H29">
-        <v>14580</v>
+        <v>1739.0129999999999</v>
       </c>
       <c r="I29">
-        <v>186</v>
+        <v>29.774999999999999</v>
       </c>
       <c r="J29">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2600</v>
+        <v>286.35399999999998</v>
       </c>
       <c r="O29">
-        <v>3601</v>
+        <v>295.50599999999997</v>
       </c>
       <c r="P29">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>420</v>
+        <v>27.503</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>256100</v>
+        <v>48900</v>
       </c>
       <c r="T29">
-        <v>10979</v>
+        <v>1443.5070000000001</v>
       </c>
       <c r="U29">
-        <v>1577</v>
+        <v>296.488</v>
       </c>
       <c r="V29">
-        <v>773</v>
+        <v>129.90299999999999</v>
       </c>
       <c r="W29">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-231</v>
+        <v>17.936</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>20</v>
+        <v>-70.795000000000002</v>
       </c>
       <c r="AA29">
-        <v>495</v>
+        <v>96.153999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-18</v>
+        <v>96.256</v>
       </c>
       <c r="D30">
-        <v>3828</v>
+        <v>599.95600000000002</v>
       </c>
       <c r="E30">
-        <v>3528</v>
+        <v>436.45600000000002</v>
       </c>
       <c r="F30">
-        <v>1468</v>
+        <v>258.44200000000001</v>
       </c>
       <c r="G30">
-        <v>9111</v>
+        <v>1242.1790000000001</v>
       </c>
       <c r="H30">
-        <v>15221</v>
+        <v>1838.306</v>
       </c>
       <c r="I30">
-        <v>210</v>
+        <v>36.176000000000002</v>
       </c>
       <c r="J30">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2839</v>
+        <v>340.68400000000003</v>
       </c>
       <c r="O30">
-        <v>4552</v>
+        <v>370.096</v>
       </c>
       <c r="P30">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>348</v>
+        <v>43.356999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>260000</v>
+        <v>55400</v>
       </c>
       <c r="T30">
-        <v>10669</v>
+        <v>1468.21</v>
       </c>
       <c r="U30">
-        <v>1925</v>
+        <v>339.84500000000003</v>
       </c>
       <c r="V30">
-        <v>836</v>
+        <v>149.89599999999999</v>
       </c>
       <c r="W30">
-        <v>-86</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-333</v>
+        <v>-80.316999999999993</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>64</v>
+        <v>180.76599999999999</v>
       </c>
       <c r="AA30">
-        <v>-18</v>
+        <v>96.256</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>520</v>
+        <v>101.873</v>
       </c>
       <c r="D31">
-        <v>3912</v>
+        <v>643.10599999999999</v>
       </c>
       <c r="E31">
-        <v>3452</v>
+        <v>519.39599999999996</v>
       </c>
       <c r="F31">
-        <v>1511</v>
+        <v>276.84100000000001</v>
       </c>
       <c r="G31">
-        <v>8990</v>
+        <v>1116.421</v>
       </c>
       <c r="H31">
-        <v>15045</v>
+        <v>1941.6569999999999</v>
       </c>
       <c r="I31">
-        <v>293</v>
+        <v>47.45</v>
       </c>
       <c r="J31">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2469</v>
+        <v>312.66000000000003</v>
       </c>
       <c r="O31">
-        <v>4057</v>
+        <v>340.63099999999997</v>
       </c>
       <c r="P31">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-326</v>
+        <v>109.89400000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>261400</v>
+        <v>58000</v>
       </c>
       <c r="T31">
-        <v>10988</v>
+        <v>1601.0260000000001</v>
       </c>
       <c r="U31">
-        <v>1440</v>
+        <v>449.73899999999998</v>
       </c>
       <c r="V31">
-        <v>388</v>
+        <v>22.260999999999999</v>
       </c>
       <c r="W31">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-488</v>
+        <v>16.876000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-130</v>
+        <v>128.828</v>
       </c>
       <c r="AA31">
-        <v>520</v>
+        <v>101.873</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>456</v>
+        <v>103.85599999999999</v>
       </c>
       <c r="D32">
-        <v>4006</v>
+        <v>685.42700000000002</v>
       </c>
       <c r="E32">
-        <v>3522</v>
+        <v>583.13199999999995</v>
       </c>
       <c r="F32">
-        <v>1589</v>
+        <v>304.56</v>
       </c>
       <c r="G32">
-        <v>8303</v>
+        <v>1268.6199999999999</v>
       </c>
       <c r="H32">
-        <v>14806</v>
+        <v>2109.7809999999999</v>
       </c>
       <c r="I32">
-        <v>217</v>
+        <v>50.808999999999997</v>
       </c>
       <c r="J32">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2537</v>
+        <v>328.447</v>
       </c>
       <c r="O32">
-        <v>4158</v>
+        <v>355.40699999999998</v>
       </c>
       <c r="P32">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-698</v>
+        <v>71.453999999999994</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>268900</v>
+        <v>59300</v>
       </c>
       <c r="T32">
-        <v>10648</v>
+        <v>1754.374</v>
       </c>
       <c r="U32">
-        <v>901</v>
+        <v>521.19299999999998</v>
       </c>
       <c r="V32">
-        <v>640</v>
+        <v>74.765000000000001</v>
       </c>
       <c r="W32">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-734</v>
+        <v>38.573</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-16</v>
+        <v>3.028</v>
       </c>
       <c r="AA32">
-        <v>456</v>
+        <v>103.85599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>477</v>
+        <v>112.828</v>
       </c>
       <c r="D33">
-        <v>4078</v>
+        <v>734.726</v>
       </c>
       <c r="E33">
-        <v>3507</v>
+        <v>599.95000000000005</v>
       </c>
       <c r="F33">
-        <v>1598</v>
+        <v>328.79</v>
       </c>
       <c r="G33">
-        <v>8727</v>
+        <v>1321.2080000000001</v>
       </c>
       <c r="H33">
-        <v>15274</v>
+        <v>2212.2280000000001</v>
       </c>
       <c r="I33">
-        <v>223</v>
+        <v>45.753</v>
       </c>
       <c r="J33">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2693</v>
+        <v>345.89800000000002</v>
       </c>
       <c r="O33">
-        <v>4296</v>
+        <v>369.19900000000001</v>
       </c>
       <c r="P33">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>438</v>
+        <v>48.069000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>274200</v>
+        <v>59500</v>
       </c>
       <c r="T33">
-        <v>10978</v>
+        <v>1843.029</v>
       </c>
       <c r="U33">
-        <v>1339</v>
+        <v>569.26199999999994</v>
       </c>
       <c r="V33">
-        <v>862</v>
+        <v>139.76599999999999</v>
       </c>
       <c r="W33">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-146</v>
+        <v>-18.212</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-171</v>
+        <v>1.972</v>
       </c>
       <c r="AA33">
-        <v>477</v>
+        <v>112.828</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>648</v>
+        <v>112.288</v>
       </c>
       <c r="D34">
-        <v>4129</v>
+        <v>753.04499999999996</v>
       </c>
       <c r="E34">
-        <v>3495</v>
+        <v>579.63900000000001</v>
       </c>
       <c r="F34">
-        <v>1589</v>
+        <v>333.29700000000003</v>
       </c>
       <c r="G34">
-        <v>8610</v>
+        <v>1468.1189999999999</v>
       </c>
       <c r="H34">
-        <v>15846</v>
+        <v>2374.56</v>
       </c>
       <c r="I34">
-        <v>215</v>
+        <v>39.97</v>
       </c>
       <c r="J34">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2710</v>
+        <v>387.577</v>
       </c>
       <c r="O34">
-        <v>4422</v>
+        <v>408.98200000000003</v>
       </c>
       <c r="P34">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-178</v>
+        <v>165.804</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>281600</v>
+        <v>61700</v>
       </c>
       <c r="T34">
-        <v>11424</v>
+        <v>1965.578</v>
       </c>
       <c r="U34">
-        <v>1161</v>
+        <v>735.06600000000003</v>
       </c>
       <c r="V34">
-        <v>702</v>
+        <v>192.91300000000001</v>
       </c>
       <c r="W34">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-325</v>
+        <v>6.7969999999999997</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>178</v>
+        <v>1.532</v>
       </c>
       <c r="AA34">
-        <v>648</v>
+        <v>112.288</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>441</v>
+        <v>113.13200000000001</v>
       </c>
       <c r="D35">
-        <v>4110</v>
+        <v>745.86199999999997</v>
       </c>
       <c r="E35">
-        <v>3712</v>
+        <v>600.70699999999999</v>
       </c>
       <c r="F35">
-        <v>1535</v>
+        <v>326.154</v>
       </c>
       <c r="G35">
-        <v>7883</v>
+        <v>1525.6559999999999</v>
       </c>
       <c r="H35">
-        <v>16096</v>
+        <v>2429.0450000000001</v>
       </c>
       <c r="I35">
-        <v>262</v>
+        <v>55.713000000000001</v>
       </c>
       <c r="J35">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2720</v>
+        <v>340.52</v>
       </c>
       <c r="O35">
-        <v>4960</v>
+        <v>356.334</v>
       </c>
       <c r="P35">
-        <v>1611</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>-211</v>
+        <v>23.501999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>285800</v>
+        <v>63700</v>
       </c>
       <c r="T35">
-        <v>11136</v>
+        <v>2072.7109999999998</v>
       </c>
       <c r="U35">
-        <v>950</v>
+        <v>758.56799999999998</v>
       </c>
       <c r="V35">
-        <v>269</v>
+        <v>75.09</v>
       </c>
       <c r="W35">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-839</v>
+        <v>-2.2989999999999999</v>
       </c>
       <c r="Y35">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>659</v>
+        <v>-21.768999999999998</v>
       </c>
       <c r="AA35">
-        <v>441</v>
+        <v>113.13200000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>509</v>
+        <v>141.255</v>
       </c>
       <c r="D36">
-        <v>4141</v>
+        <v>776.59199999999998</v>
       </c>
       <c r="E36">
-        <v>3736</v>
+        <v>635.91600000000005</v>
       </c>
       <c r="F36">
-        <v>1512</v>
+        <v>343.25200000000001</v>
       </c>
       <c r="G36">
-        <v>7206</v>
+        <v>1763.674</v>
       </c>
       <c r="H36">
-        <v>15517</v>
+        <v>2673.2869999999998</v>
       </c>
       <c r="I36">
-        <v>254</v>
+        <v>45.738999999999997</v>
       </c>
       <c r="J36">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2824</v>
+        <v>389.858</v>
       </c>
       <c r="O36">
-        <v>4960</v>
+        <v>405.59</v>
       </c>
       <c r="P36">
-        <v>1654</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>710</v>
+        <v>101.809</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>288200</v>
+        <v>64100</v>
       </c>
       <c r="T36">
-        <v>10557</v>
+        <v>2267.6970000000001</v>
       </c>
       <c r="U36">
-        <v>1660</v>
+        <v>860.37699999999995</v>
       </c>
       <c r="V36">
-        <v>575</v>
+        <v>151.25800000000001</v>
       </c>
       <c r="W36">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-1137</v>
+        <v>12.432</v>
       </c>
       <c r="Y36">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1398</v>
+        <v>-67.335999999999999</v>
       </c>
       <c r="AA36">
-        <v>509</v>
+        <v>141.255</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>497</v>
+        <v>136.572</v>
       </c>
       <c r="D37">
-        <v>4248</v>
+        <v>853.48800000000006</v>
       </c>
       <c r="E37">
-        <v>3803</v>
+        <v>684.77</v>
       </c>
       <c r="F37">
-        <v>1567</v>
+        <v>377.88900000000001</v>
       </c>
       <c r="G37">
-        <v>7391</v>
+        <v>2016.826</v>
       </c>
       <c r="H37">
-        <v>15844</v>
+        <v>2976.482</v>
       </c>
       <c r="I37">
-        <v>246</v>
+        <v>53.402999999999999</v>
       </c>
       <c r="J37">
-        <v>709</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2919</v>
+        <v>508.37400000000002</v>
       </c>
       <c r="O37">
-        <v>5142</v>
+        <v>540.26400000000001</v>
       </c>
       <c r="P37">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>683</v>
+        <v>132.54900000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>289900</v>
+        <v>68100</v>
       </c>
       <c r="T37">
-        <v>10702</v>
+        <v>2436.2179999999998</v>
       </c>
       <c r="U37">
-        <v>2343</v>
+        <v>992.92600000000004</v>
       </c>
       <c r="V37">
-        <v>717</v>
+        <v>208.45500000000001</v>
       </c>
       <c r="W37">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-340</v>
+        <v>21.463999999999999</v>
       </c>
       <c r="Y37">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>583</v>
+        <v>-62.784999999999997</v>
       </c>
       <c r="AA37">
-        <v>497</v>
+        <v>136.572</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>395</v>
+        <v>144.00399999999999</v>
       </c>
       <c r="D38">
-        <v>4284</v>
+        <v>902.721</v>
       </c>
       <c r="E38">
-        <v>3590</v>
+        <v>709.24</v>
       </c>
       <c r="F38">
-        <v>1560</v>
+        <v>382.11200000000002</v>
       </c>
       <c r="G38">
-        <v>7611</v>
+        <v>2307.5680000000002</v>
       </c>
       <c r="H38">
-        <v>16204</v>
+        <v>3338.24</v>
       </c>
       <c r="I38">
-        <v>239</v>
+        <v>54.64</v>
       </c>
       <c r="J38">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2983</v>
+        <v>646.60799999999995</v>
       </c>
       <c r="O38">
-        <v>5182</v>
+        <v>685.06299999999999</v>
       </c>
       <c r="P38">
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>302</v>
+        <v>108.004</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>292500</v>
+        <v>78400</v>
       </c>
       <c r="T38">
-        <v>11022</v>
+        <v>2653.1770000000001</v>
       </c>
       <c r="U38">
-        <v>2645</v>
+        <v>1100.93</v>
       </c>
       <c r="V38">
-        <v>938</v>
+        <v>237.52199999999999</v>
       </c>
       <c r="W38">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-253</v>
+        <v>45.350999999999999</v>
       </c>
       <c r="Y38">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-43</v>
+        <v>-97.622</v>
       </c>
       <c r="AA38">
-        <v>395</v>
+        <v>144.00399999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>367</v>
+        <v>151.5</v>
       </c>
       <c r="D39">
-        <v>4225</v>
+        <v>959.72</v>
       </c>
       <c r="E39">
-        <v>3579</v>
+        <v>812.32500000000005</v>
       </c>
       <c r="F39">
-        <v>1484</v>
+        <v>403.81599999999997</v>
       </c>
       <c r="G39">
-        <v>8325</v>
+        <v>2469.2330000000002</v>
       </c>
       <c r="H39">
-        <v>17429</v>
+        <v>3509.7469999999998</v>
       </c>
       <c r="I39">
-        <v>289</v>
+        <v>85.63</v>
       </c>
       <c r="J39">
-        <v>2430</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2872</v>
+        <v>578.14700000000005</v>
       </c>
       <c r="O39">
-        <v>6816</v>
+        <v>623.37800000000004</v>
       </c>
       <c r="P39">
-        <v>3399</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1241</v>
+        <v>-19.988</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>291700</v>
+        <v>85500</v>
       </c>
       <c r="T39">
-        <v>10613</v>
+        <v>2886.3690000000001</v>
       </c>
       <c r="U39">
-        <v>3886</v>
+        <v>1080.942</v>
       </c>
       <c r="V39">
-        <v>497</v>
+        <v>2.3279999999999998</v>
       </c>
       <c r="W39">
-        <v>-121</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>1135</v>
+        <v>43.540999999999997</v>
       </c>
       <c r="Y39">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-74</v>
+        <v>-32.921999999999997</v>
       </c>
       <c r="AA39">
-        <v>367</v>
+        <v>151.5</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>361</v>
+        <v>172.17500000000001</v>
       </c>
       <c r="D40">
-        <v>4000</v>
+        <v>1105.154</v>
       </c>
       <c r="E40">
-        <v>3547</v>
+        <v>933.69100000000003</v>
       </c>
       <c r="F40">
-        <v>1410</v>
+        <v>464.13499999999999</v>
       </c>
       <c r="G40">
-        <v>8531</v>
+        <v>2804.924</v>
       </c>
       <c r="H40">
-        <v>18216</v>
+        <v>3764.154</v>
       </c>
       <c r="I40">
-        <v>359</v>
+        <v>80.986000000000004</v>
       </c>
       <c r="J40">
-        <v>2421</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3212</v>
+        <v>645.59799999999996</v>
       </c>
       <c r="O40">
-        <v>7244</v>
+        <v>723.26700000000005</v>
       </c>
       <c r="P40">
-        <v>3467</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>536</v>
+        <v>-41.256</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>281200</v>
+        <v>88700</v>
       </c>
       <c r="T40">
-        <v>10972</v>
+        <v>3040.8870000000002</v>
       </c>
       <c r="U40">
-        <v>4422</v>
+        <v>1039.6859999999999</v>
       </c>
       <c r="V40">
-        <v>979</v>
+        <v>135.29400000000001</v>
       </c>
       <c r="W40">
-        <v>-121</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-171</v>
+        <v>29.904</v>
       </c>
       <c r="Y40">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>237</v>
+        <v>-129.863</v>
       </c>
       <c r="AA40">
-        <v>361</v>
+        <v>172.17500000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>348</v>
+        <v>203.69900000000001</v>
       </c>
       <c r="D41">
-        <v>4243</v>
+        <v>1216.913</v>
       </c>
       <c r="E41">
-        <v>3451</v>
+        <v>1065.136</v>
       </c>
       <c r="F41">
-        <v>1617</v>
+        <v>517.29</v>
       </c>
       <c r="G41">
-        <v>8619</v>
+        <v>3234.68</v>
       </c>
       <c r="H41">
-        <v>18787</v>
+        <v>4246.2790000000005</v>
       </c>
       <c r="I41">
-        <v>420</v>
+        <v>93.944999999999993</v>
       </c>
       <c r="J41">
-        <v>2412</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3296</v>
+        <v>804.16899999999998</v>
       </c>
       <c r="O41">
-        <v>7647</v>
+        <v>879.09500000000003</v>
       </c>
       <c r="P41">
-        <v>3483</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>277.39100000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>283100</v>
+        <v>95600</v>
       </c>
       <c r="T41">
-        <v>11140</v>
+        <v>3367.1840000000002</v>
       </c>
       <c r="U41">
-        <v>4436</v>
+        <v>1317.077</v>
       </c>
       <c r="V41">
-        <v>925</v>
+        <v>234.738</v>
       </c>
       <c r="W41">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-347</v>
+        <v>61.026000000000003</v>
       </c>
       <c r="Y41">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>26</v>
+        <v>12.866</v>
       </c>
       <c r="AA41">
-        <v>348</v>
+        <v>203.69900000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>206.166</v>
+      </c>
+      <c r="D42">
+        <v>1310.6020000000001</v>
+      </c>
+      <c r="E42">
+        <v>1014.268</v>
+      </c>
+      <c r="F42">
+        <v>552.57899999999995</v>
+      </c>
+      <c r="G42">
+        <v>3518.2339999999999</v>
+      </c>
+      <c r="H42">
+        <v>4583.0739999999996</v>
+      </c>
+      <c r="I42">
+        <v>75.373000000000005</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>930.726</v>
+      </c>
+      <c r="O42">
+        <v>998.64300000000003</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>223.892</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>104000</v>
+      </c>
+      <c r="T42">
+        <v>3584.431</v>
+      </c>
+      <c r="U42">
+        <v>1540.9690000000001</v>
+      </c>
+      <c r="V42">
+        <v>392.29399999999998</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-14.468</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-77.596000000000004</v>
+      </c>
+      <c r="AA42">
+        <v>206.166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>208.327</v>
+      </c>
+      <c r="D43">
+        <v>1371.2529999999999</v>
+      </c>
+      <c r="E43">
+        <v>1123.1500000000001</v>
+      </c>
+      <c r="F43">
+        <v>589.077</v>
+      </c>
+      <c r="G43">
+        <v>3535.8</v>
+      </c>
+      <c r="H43">
+        <v>4637.8729999999996</v>
+      </c>
+      <c r="I43">
+        <v>117.595</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>801.71299999999997</v>
+      </c>
+      <c r="O43">
+        <v>873.68399999999997</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-247.47</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>111200</v>
+      </c>
+      <c r="T43">
+        <v>3764.1889999999999</v>
+      </c>
+      <c r="U43">
+        <v>1293.499</v>
+      </c>
+      <c r="V43">
+        <v>45.628999999999998</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-49.043999999999997</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-188.947</v>
+      </c>
+      <c r="AA43">
+        <v>208.327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>208.04499999999999</v>
+      </c>
+      <c r="D44">
+        <v>1485.242</v>
+      </c>
+      <c r="E44">
+        <v>1227.5920000000001</v>
+      </c>
+      <c r="F44">
+        <v>624.37099999999998</v>
+      </c>
+      <c r="G44">
+        <v>3757.8969999999999</v>
+      </c>
+      <c r="H44">
+        <v>4916.7020000000002</v>
+      </c>
+      <c r="I44">
+        <v>89.057000000000002</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>887.351</v>
+      </c>
+      <c r="O44">
+        <v>964.85299999999995</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-100.459</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>118300</v>
+      </c>
+      <c r="T44">
+        <v>3951.8490000000002</v>
+      </c>
+      <c r="U44">
+        <v>1193.04</v>
+      </c>
+      <c r="V44">
+        <v>215.113</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-80.763000000000005</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-198.58500000000001</v>
+      </c>
+      <c r="AA44">
+        <v>208.04499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>227.119</v>
+      </c>
+      <c r="D45">
+        <v>1600.954</v>
+      </c>
+      <c r="E45">
+        <v>1268.076</v>
+      </c>
+      <c r="F45">
+        <v>676.06799999999998</v>
+      </c>
+      <c r="G45">
+        <v>3812.1970000000001</v>
+      </c>
+      <c r="H45">
+        <v>5104.1149999999998</v>
+      </c>
+      <c r="I45">
+        <v>78.183000000000007</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1040.73</v>
+      </c>
+      <c r="O45">
+        <v>1164.5930000000001</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-11.821</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>130400</v>
+      </c>
+      <c r="T45">
+        <v>3939.5219999999999</v>
+      </c>
+      <c r="U45">
+        <v>1181.2190000000001</v>
+      </c>
+      <c r="V45">
+        <v>329.34399999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-146.92400000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-50.817</v>
+      </c>
+      <c r="AA45">
+        <v>227.119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>240.12700000000001</v>
+      </c>
+      <c r="D46">
+        <v>1663.7070000000001</v>
+      </c>
+      <c r="E46">
+        <v>1318.67</v>
+      </c>
+      <c r="F46">
+        <v>693.01800000000003</v>
+      </c>
+      <c r="G46">
+        <v>4085.5059999999999</v>
+      </c>
+      <c r="H46">
+        <v>5507.933</v>
+      </c>
+      <c r="I46">
+        <v>72.204999999999998</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1209.7049999999999</v>
+      </c>
+      <c r="O46">
+        <v>1555.047</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>129.68700000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>137700</v>
+      </c>
+      <c r="T46">
+        <v>3952.886</v>
+      </c>
+      <c r="U46">
+        <v>1310.9059999999999</v>
+      </c>
+      <c r="V46">
+        <v>285.06599999999997</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>21.276</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-40.911000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>240.12700000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>243.65100000000001</v>
+      </c>
+      <c r="D47">
+        <v>1711.3489999999999</v>
+      </c>
+      <c r="E47">
+        <v>1421.258</v>
+      </c>
+      <c r="F47">
+        <v>726.82899999999995</v>
+      </c>
+      <c r="G47">
+        <v>4196.7420000000002</v>
+      </c>
+      <c r="H47">
+        <v>5668.125</v>
+      </c>
+      <c r="I47">
+        <v>109.983</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1021.245</v>
+      </c>
+      <c r="O47">
+        <v>1300.876</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>17.629000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>140500</v>
+      </c>
+      <c r="T47">
+        <v>4367.2489999999998</v>
+      </c>
+      <c r="U47">
+        <v>1328.5350000000001</v>
+      </c>
+      <c r="V47">
+        <v>101.76300000000001</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>7.117</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-27.161999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>243.65100000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>251.93199999999999</v>
+      </c>
+      <c r="D48">
+        <v>1795.22</v>
+      </c>
+      <c r="E48">
+        <v>1503.8869999999999</v>
+      </c>
+      <c r="F48">
+        <v>764.33100000000002</v>
+      </c>
+      <c r="G48">
+        <v>4152.3519999999999</v>
+      </c>
+      <c r="H48">
+        <v>5654.2190000000001</v>
+      </c>
+      <c r="I48">
+        <v>104.411</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1151.095</v>
+      </c>
+      <c r="O48">
+        <v>1561.886</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-278.29000000000002</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>145200</v>
+      </c>
+      <c r="T48">
+        <v>4092.3330000000001</v>
+      </c>
+      <c r="U48">
+        <v>1050.2449999999999</v>
+      </c>
+      <c r="V48">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-348.52</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-151.99199999999999</v>
+      </c>
+      <c r="AA48">
+        <v>251.93199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>276.90100000000001</v>
+      </c>
+      <c r="D49">
+        <v>1891.6880000000001</v>
+      </c>
+      <c r="E49">
+        <v>1577.1949999999999</v>
+      </c>
+      <c r="F49">
+        <v>779.79</v>
+      </c>
+      <c r="G49">
+        <v>4541.5309999999999</v>
+      </c>
+      <c r="H49">
+        <v>6107.0389999999998</v>
+      </c>
+      <c r="I49">
+        <v>111.42</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1275.588</v>
+      </c>
+      <c r="O49">
+        <v>1534.6690000000001</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>274.49400000000003</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>150400</v>
+      </c>
+      <c r="T49">
+        <v>4572.37</v>
+      </c>
+      <c r="U49">
+        <v>1324.739</v>
+      </c>
+      <c r="V49">
+        <v>384.86</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-25.649000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>276.90100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>278.779</v>
+      </c>
+      <c r="D50">
+        <v>1948.2149999999999</v>
+      </c>
+      <c r="E50">
+        <v>1528.7460000000001</v>
+      </c>
+      <c r="F50">
+        <v>797.28099999999995</v>
+      </c>
+      <c r="G50">
+        <v>4814.2939999999999</v>
+      </c>
+      <c r="H50">
+        <v>6521.5709999999999</v>
+      </c>
+      <c r="I50">
+        <v>108.70699999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1377.33</v>
+      </c>
+      <c r="O50">
+        <v>1667.1880000000001</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>245.33799999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>156700</v>
+      </c>
+      <c r="T50">
+        <v>4854.3829999999998</v>
+      </c>
+      <c r="U50">
+        <v>1570.077</v>
+      </c>
+      <c r="V50">
+        <v>361.86</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>24.064</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>278.779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>284.209</v>
+      </c>
+      <c r="D51">
+        <v>2020.7380000000001</v>
+      </c>
+      <c r="E51">
+        <v>1702.3340000000001</v>
+      </c>
+      <c r="F51">
+        <v>820.77300000000002</v>
+      </c>
+      <c r="G51">
+        <v>4836.6400000000003</v>
+      </c>
+      <c r="H51">
+        <v>6709.3019999999997</v>
+      </c>
+      <c r="I51">
+        <v>132.501</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1225.8430000000001</v>
+      </c>
+      <c r="O51">
+        <v>1493.3679999999999</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-95.216999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>162700</v>
+      </c>
+      <c r="T51">
+        <v>5215.9340000000002</v>
+      </c>
+      <c r="U51">
+        <v>1474.86</v>
+      </c>
+      <c r="V51">
+        <v>73.468000000000004</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>16.931999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>25.587</v>
+      </c>
+      <c r="AA51">
+        <v>284.209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>300.41000000000003</v>
+      </c>
+      <c r="D52">
+        <v>2161.2399999999998</v>
+      </c>
+      <c r="E52">
+        <v>1785.2270000000001</v>
+      </c>
+      <c r="F52">
+        <v>889.22699999999998</v>
+      </c>
+      <c r="G52">
+        <v>5133.9610000000002</v>
+      </c>
+      <c r="H52">
+        <v>7012.32</v>
+      </c>
+      <c r="I52">
+        <v>94.069000000000003</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1357.297</v>
+      </c>
+      <c r="O52">
+        <v>1688.5719999999999</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>203.345</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>164300</v>
+      </c>
+      <c r="T52">
+        <v>5323.7479999999996</v>
+      </c>
+      <c r="U52">
+        <v>1678.2049999999999</v>
+      </c>
+      <c r="V52">
+        <v>365.55700000000002</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-106.313</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>22.286000000000001</v>
+      </c>
+      <c r="AA52">
+        <v>300.41000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>319.62700000000001</v>
+      </c>
+      <c r="D53">
+        <v>2305.723</v>
+      </c>
+      <c r="E53">
+        <v>1891.1859999999999</v>
+      </c>
+      <c r="F53">
+        <v>923.38699999999994</v>
+      </c>
+      <c r="G53">
+        <v>5739.2049999999999</v>
+      </c>
+      <c r="H53">
+        <v>7617.1490000000003</v>
+      </c>
+      <c r="I53">
+        <v>114.825</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1602.038</v>
+      </c>
+      <c r="O53">
+        <v>1968.873</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>352.91399999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>166400</v>
+      </c>
+      <c r="T53">
+        <v>5648.2759999999998</v>
+      </c>
+      <c r="U53">
+        <v>2031.1189999999999</v>
+      </c>
+      <c r="V53">
+        <v>478.87799999999999</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>28.332000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-119.42700000000001</v>
+      </c>
+      <c r="AA53">
+        <v>319.62700000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>324.33199999999999</v>
+      </c>
+      <c r="D54">
+        <v>2355.4879999999998</v>
+      </c>
+      <c r="E54">
+        <v>1875.2719999999999</v>
+      </c>
+      <c r="F54">
+        <v>944.33299999999997</v>
+      </c>
+      <c r="G54">
+        <v>6147.8819999999996</v>
+      </c>
+      <c r="H54">
+        <v>8134.7179999999998</v>
+      </c>
+      <c r="I54">
+        <v>113.39400000000001</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1774.508</v>
+      </c>
+      <c r="O54">
+        <v>1998.9269999999999</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>181.887</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>171400</v>
+      </c>
+      <c r="T54">
+        <v>6135.7910000000002</v>
+      </c>
+      <c r="U54">
+        <v>2213.0059999999999</v>
+      </c>
+      <c r="V54">
+        <v>505.87299999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>30.181999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-203.77799999999999</v>
+      </c>
+      <c r="AA54">
+        <v>324.33199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>348.9</v>
+      </c>
+      <c r="D55">
+        <v>2422.3000000000002</v>
+      </c>
+      <c r="E55">
+        <v>1970.954</v>
+      </c>
+      <c r="F55">
+        <v>989.9</v>
+      </c>
+      <c r="G55">
+        <v>6290.74</v>
+      </c>
+      <c r="H55">
+        <v>8279.2990000000009</v>
+      </c>
+      <c r="I55">
+        <v>176.374</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1502.866</v>
+      </c>
+      <c r="O55">
+        <v>1656.3420000000001</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-277</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>178600</v>
+      </c>
+      <c r="T55">
+        <v>6622.9570000000003</v>
+      </c>
+      <c r="U55">
+        <v>1935.991</v>
+      </c>
+      <c r="V55">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-6.5</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-388.8</v>
+      </c>
+      <c r="AA55">
+        <v>348.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>371.9</v>
+      </c>
+      <c r="D56">
+        <v>2517.1</v>
+      </c>
+      <c r="E56">
+        <v>2120.58</v>
+      </c>
+      <c r="F56">
+        <v>1017.6</v>
+      </c>
+      <c r="G56">
+        <v>6740.69</v>
+      </c>
+      <c r="H56">
+        <v>8687.2939999999999</v>
+      </c>
+      <c r="I56">
+        <v>119.145</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1567.662</v>
+      </c>
+      <c r="O56">
+        <v>1696.4649999999999</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>56.4</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>187400</v>
+      </c>
+      <c r="T56">
+        <v>6990.8289999999997</v>
+      </c>
+      <c r="U56">
+        <v>1992.442</v>
+      </c>
+      <c r="V56">
+        <v>408.3</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-93.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-208.9</v>
+      </c>
+      <c r="AA56">
+        <v>371.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>355.6</v>
+      </c>
+      <c r="D57">
+        <v>2581</v>
+      </c>
+      <c r="E57">
+        <v>2147.1309999999999</v>
+      </c>
+      <c r="F57">
+        <v>1011.2</v>
+      </c>
+      <c r="G57">
+        <v>7260.0259999999998</v>
+      </c>
+      <c r="H57">
+        <v>9227.0429999999997</v>
+      </c>
+      <c r="I57">
+        <v>130.04</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1741.4639999999999</v>
+      </c>
+      <c r="O57">
+        <v>1845.3330000000001</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>625.20000000000005</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>199700</v>
+      </c>
+      <c r="T57">
+        <v>7381.71</v>
+      </c>
+      <c r="U57">
+        <v>2617.6190000000001</v>
+      </c>
+      <c r="V57">
+        <v>583.20000000000005</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-8.4</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>120.1</v>
+      </c>
+      <c r="AA57">
+        <v>355.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>362.9</v>
+      </c>
+      <c r="D58">
+        <v>2742.2</v>
+      </c>
+      <c r="E58">
+        <v>2293.3000000000002</v>
+      </c>
+      <c r="F58">
+        <v>1102.8</v>
+      </c>
+      <c r="G58">
+        <v>6420.6</v>
+      </c>
+      <c r="H58">
+        <v>11479</v>
+      </c>
+      <c r="I58">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="J58">
+        <v>937.5</v>
+      </c>
+      <c r="K58">
+        <v>650</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2592.1</v>
+      </c>
+      <c r="O58">
+        <v>3738.8</v>
+      </c>
+      <c r="P58">
+        <v>1637.5</v>
+      </c>
+      <c r="Q58">
+        <v>-607.5</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>211500</v>
+      </c>
+      <c r="T58">
+        <v>7740.2</v>
+      </c>
+      <c r="U58">
+        <v>2010.1</v>
+      </c>
+      <c r="V58">
+        <v>324.2</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1611.8</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>220.5</v>
+      </c>
+      <c r="AA58">
+        <v>362.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>382.9</v>
+      </c>
+      <c r="D59">
+        <v>2911.4</v>
+      </c>
+      <c r="E59">
+        <v>2448.1</v>
+      </c>
+      <c r="F59">
+        <v>1184.2</v>
+      </c>
+      <c r="G59">
+        <v>6406.5</v>
+      </c>
+      <c r="H59">
+        <v>11383.4</v>
+      </c>
+      <c r="I59">
+        <v>181.4</v>
+      </c>
+      <c r="J59">
+        <v>925</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59">
+        <v>-550</v>
+      </c>
+      <c r="M59">
+        <v>-13.1</v>
+      </c>
+      <c r="N59">
+        <v>1884.1</v>
+      </c>
+      <c r="O59">
+        <v>3204.9</v>
+      </c>
+      <c r="P59">
+        <v>1075</v>
+      </c>
+      <c r="Q59">
+        <v>-738.7</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>217700</v>
+      </c>
+      <c r="T59">
+        <v>8178.5</v>
+      </c>
+      <c r="U59">
+        <v>1271.4000000000001</v>
+      </c>
+      <c r="V59">
+        <v>189.3</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-557.29999999999995</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-306</v>
+      </c>
+      <c r="AA59">
+        <v>382.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>420.1</v>
+      </c>
+      <c r="D60">
+        <v>3085.1</v>
+      </c>
+      <c r="E60">
+        <v>2548.6999999999998</v>
+      </c>
+      <c r="F60">
+        <v>1240.3</v>
+      </c>
+      <c r="G60">
+        <v>6771.4</v>
+      </c>
+      <c r="H60">
+        <v>11797.6</v>
+      </c>
+      <c r="I60">
+        <v>169</v>
+      </c>
+      <c r="J60">
+        <v>912.5</v>
+      </c>
+      <c r="K60">
+        <v>100</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1956.5</v>
+      </c>
+      <c r="O60">
+        <v>3256.8</v>
+      </c>
+      <c r="P60">
+        <v>1062.5</v>
+      </c>
+      <c r="Q60">
+        <v>-182.1</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>218000</v>
+      </c>
+      <c r="T60">
+        <v>8540.7999999999993</v>
+      </c>
+      <c r="U60">
+        <v>1089.3</v>
+      </c>
+      <c r="V60">
+        <v>456.1</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-149.1</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-413.9</v>
+      </c>
+      <c r="AA60">
+        <v>420.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>397.2</v>
+      </c>
+      <c r="D61">
+        <v>3187</v>
+      </c>
+      <c r="E61">
+        <v>2556.6</v>
+      </c>
+      <c r="F61">
+        <v>1252.4000000000001</v>
+      </c>
+      <c r="G61">
+        <v>7237.9</v>
+      </c>
+      <c r="H61">
+        <v>12267.6</v>
+      </c>
+      <c r="I61">
+        <v>160.1</v>
+      </c>
+      <c r="J61">
+        <v>900</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2128.4</v>
+      </c>
+      <c r="O61">
+        <v>3440.6</v>
+      </c>
+      <c r="P61">
+        <v>950</v>
+      </c>
+      <c r="Q61">
+        <v>387.4</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>219300</v>
+      </c>
+      <c r="T61">
+        <v>8827</v>
+      </c>
+      <c r="U61">
+        <v>1476.7</v>
+      </c>
+      <c r="V61">
+        <v>817.9</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-248.5</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-111.8</v>
+      </c>
+      <c r="AA61">
+        <v>397.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>423.8</v>
+      </c>
+      <c r="D62">
+        <v>3232.5</v>
+      </c>
+      <c r="E62">
+        <v>2622</v>
+      </c>
+      <c r="F62">
+        <v>1299.0999999999999</v>
+      </c>
+      <c r="G62">
+        <v>7909</v>
+      </c>
+      <c r="H62">
+        <v>13061</v>
+      </c>
+      <c r="I62">
+        <v>165</v>
+      </c>
+      <c r="J62">
+        <v>877</v>
+      </c>
+      <c r="K62">
+        <v>350</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2714</v>
+      </c>
+      <c r="O62">
+        <v>3783</v>
+      </c>
+      <c r="P62">
+        <v>1283</v>
+      </c>
+      <c r="Q62">
+        <v>648.4</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>221700</v>
+      </c>
+      <c r="T62">
+        <v>9278</v>
+      </c>
+      <c r="U62">
+        <v>2125</v>
+      </c>
+      <c r="V62">
+        <v>689.7</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-264.3</v>
+      </c>
+      <c r="AA62">
+        <v>423.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>441</v>
+      </c>
+      <c r="D63">
+        <v>3202</v>
+      </c>
+      <c r="E63">
+        <v>2751.3</v>
+      </c>
+      <c r="F63">
+        <v>1287</v>
+      </c>
+      <c r="G63">
+        <v>7570.9</v>
+      </c>
+      <c r="H63">
+        <v>12735.9</v>
+      </c>
+      <c r="I63">
+        <v>213.2</v>
+      </c>
+      <c r="J63">
+        <v>858.4</v>
+      </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
+      <c r="L63">
+        <v>-250</v>
+      </c>
+      <c r="M63">
+        <v>-13</v>
+      </c>
+      <c r="N63">
+        <v>2050.4</v>
+      </c>
+      <c r="O63">
+        <v>3123.6</v>
+      </c>
+      <c r="P63">
+        <v>1020.9</v>
+      </c>
+      <c r="Q63">
+        <v>-601</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>233000</v>
+      </c>
+      <c r="T63">
+        <v>9612.2999999999993</v>
+      </c>
+      <c r="U63">
+        <v>1523.8</v>
+      </c>
+      <c r="V63">
+        <v>72</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-471</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-94</v>
+      </c>
+      <c r="AA63">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>252</v>
+      </c>
+      <c r="D64">
+        <v>3370</v>
+      </c>
+      <c r="E64">
+        <v>2878.5</v>
+      </c>
+      <c r="F64">
+        <v>1332</v>
+      </c>
+      <c r="G64">
+        <v>7758.9</v>
+      </c>
+      <c r="H64">
+        <v>13140.1</v>
+      </c>
+      <c r="I64">
+        <v>164.5</v>
+      </c>
+      <c r="J64">
+        <v>840</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2120</v>
+      </c>
+      <c r="O64">
+        <v>3277.2</v>
+      </c>
+      <c r="P64">
+        <v>908.8</v>
+      </c>
+      <c r="Q64">
+        <v>160</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>244300</v>
+      </c>
+      <c r="T64">
+        <v>9862.9</v>
+      </c>
+      <c r="U64">
+        <v>1684.5</v>
+      </c>
+      <c r="V64">
+        <v>366</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-150</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>124</v>
+      </c>
+      <c r="AA64">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>444</v>
+      </c>
+      <c r="D65">
+        <v>3453</v>
+      </c>
+      <c r="E65">
+        <v>2915.7</v>
+      </c>
+      <c r="F65">
+        <v>1376</v>
+      </c>
+      <c r="G65">
+        <v>8199.7999999999993</v>
+      </c>
+      <c r="H65">
+        <v>13716.7</v>
+      </c>
+      <c r="I65">
+        <v>171.5</v>
+      </c>
+      <c r="J65">
+        <v>821.6</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2300.6999999999998</v>
+      </c>
+      <c r="O65">
+        <v>3424.4</v>
+      </c>
+      <c r="P65">
+        <v>896.6</v>
+      </c>
+      <c r="Q65">
+        <v>-134</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>255800</v>
+      </c>
+      <c r="T65">
+        <v>10292.299999999999</v>
+      </c>
+      <c r="U65">
+        <v>1550.3</v>
+      </c>
+      <c r="V65">
+        <v>603</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-127</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-505</v>
+      </c>
+      <c r="AA65">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>416</v>
+      </c>
+      <c r="D66">
+        <v>3462</v>
+      </c>
+      <c r="E66">
+        <v>2905</v>
+      </c>
+      <c r="F66">
+        <v>1384</v>
+      </c>
+      <c r="G66">
+        <v>8600</v>
+      </c>
+      <c r="H66">
+        <v>14262</v>
+      </c>
+      <c r="I66">
+        <v>175</v>
+      </c>
+      <c r="J66">
+        <v>797</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2418</v>
+      </c>
+      <c r="O66">
+        <v>3534</v>
+      </c>
+      <c r="P66">
+        <v>878</v>
+      </c>
+      <c r="Q66">
+        <v>484</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>260200</v>
+      </c>
+      <c r="T66">
+        <v>10728</v>
+      </c>
+      <c r="U66">
+        <v>2034</v>
+      </c>
+      <c r="V66">
+        <v>604</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>146</v>
+      </c>
+      <c r="AA66">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>557</v>
+      </c>
+      <c r="D67">
+        <v>3546</v>
+      </c>
+      <c r="E67">
+        <v>3039</v>
+      </c>
+      <c r="F67">
+        <v>1352</v>
+      </c>
+      <c r="G67">
+        <v>7842</v>
+      </c>
+      <c r="H67">
+        <v>13629</v>
+      </c>
+      <c r="I67">
+        <v>189</v>
+      </c>
+      <c r="J67">
+        <v>772</v>
+      </c>
+      <c r="K67">
+        <v>350</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-21</v>
+      </c>
+      <c r="N67">
+        <v>2585</v>
+      </c>
+      <c r="O67">
+        <v>3646</v>
+      </c>
+      <c r="P67">
+        <v>1209</v>
+      </c>
+      <c r="Q67">
+        <v>-726</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>261200</v>
+      </c>
+      <c r="T67">
+        <v>9983</v>
+      </c>
+      <c r="U67">
+        <v>1308</v>
+      </c>
+      <c r="V67">
+        <v>277</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-1124</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>163</v>
+      </c>
+      <c r="AA67">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>470</v>
+      </c>
+      <c r="D68">
+        <v>3670</v>
+      </c>
+      <c r="E68">
+        <v>3089</v>
+      </c>
+      <c r="F68">
+        <v>1409</v>
+      </c>
+      <c r="G68">
+        <v>8099</v>
+      </c>
+      <c r="H68">
+        <v>13938</v>
+      </c>
+      <c r="I68">
+        <v>179</v>
+      </c>
+      <c r="J68">
+        <v>747</v>
+      </c>
+      <c r="K68">
+        <v>150</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2415</v>
+      </c>
+      <c r="O68">
+        <v>3455</v>
+      </c>
+      <c r="P68">
+        <v>991</v>
+      </c>
+      <c r="Q68">
+        <v>-151</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>256800</v>
+      </c>
+      <c r="T68">
+        <v>10483</v>
+      </c>
+      <c r="U68">
+        <v>1157</v>
+      </c>
+      <c r="V68">
+        <v>521</v>
+      </c>
+      <c r="W68">
+        <v>-89</v>
+      </c>
+      <c r="X68">
+        <v>-297</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-329</v>
+      </c>
+      <c r="AA68">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>495</v>
+      </c>
+      <c r="D69">
+        <v>3766</v>
+      </c>
+      <c r="E69">
+        <v>3292</v>
+      </c>
+      <c r="F69">
+        <v>1429</v>
+      </c>
+      <c r="G69">
+        <v>8557</v>
+      </c>
+      <c r="H69">
+        <v>14580</v>
+      </c>
+      <c r="I69">
+        <v>186</v>
+      </c>
+      <c r="J69">
+        <v>723</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2600</v>
+      </c>
+      <c r="O69">
+        <v>3601</v>
+      </c>
+      <c r="P69">
+        <v>823</v>
+      </c>
+      <c r="Q69">
+        <v>420</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>256100</v>
+      </c>
+      <c r="T69">
+        <v>10979</v>
+      </c>
+      <c r="U69">
+        <v>1577</v>
+      </c>
+      <c r="V69">
+        <v>773</v>
+      </c>
+      <c r="W69">
+        <v>-90</v>
+      </c>
+      <c r="X69">
+        <v>-231</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>20</v>
+      </c>
+      <c r="AA69">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-18</v>
+      </c>
+      <c r="D70">
+        <v>3828</v>
+      </c>
+      <c r="E70">
+        <v>3528</v>
+      </c>
+      <c r="F70">
+        <v>1468</v>
+      </c>
+      <c r="G70">
+        <v>9111</v>
+      </c>
+      <c r="H70">
+        <v>15221</v>
+      </c>
+      <c r="I70">
+        <v>210</v>
+      </c>
+      <c r="J70">
+        <v>698</v>
+      </c>
+      <c r="K70">
+        <v>75</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2839</v>
+      </c>
+      <c r="O70">
+        <v>4552</v>
+      </c>
+      <c r="P70">
+        <v>873</v>
+      </c>
+      <c r="Q70">
+        <v>348</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>260000</v>
+      </c>
+      <c r="T70">
+        <v>10669</v>
+      </c>
+      <c r="U70">
+        <v>1925</v>
+      </c>
+      <c r="V70">
+        <v>836</v>
+      </c>
+      <c r="W70">
+        <v>-86</v>
+      </c>
+      <c r="X70">
+        <v>-333</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>64</v>
+      </c>
+      <c r="AA70">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>520</v>
+      </c>
+      <c r="D71">
+        <v>3912</v>
+      </c>
+      <c r="E71">
+        <v>3452</v>
+      </c>
+      <c r="F71">
+        <v>1511</v>
+      </c>
+      <c r="G71">
+        <v>8990</v>
+      </c>
+      <c r="H71">
+        <v>15045</v>
+      </c>
+      <c r="I71">
+        <v>293</v>
+      </c>
+      <c r="J71">
+        <v>673</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-75</v>
+      </c>
+      <c r="M71">
+        <v>-39</v>
+      </c>
+      <c r="N71">
+        <v>2469</v>
+      </c>
+      <c r="O71">
+        <v>4057</v>
+      </c>
+      <c r="P71">
+        <v>773</v>
+      </c>
+      <c r="Q71">
+        <v>-326</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>261400</v>
+      </c>
+      <c r="T71">
+        <v>10988</v>
+      </c>
+      <c r="U71">
+        <v>1440</v>
+      </c>
+      <c r="V71">
+        <v>388</v>
+      </c>
+      <c r="W71">
+        <v>-118</v>
+      </c>
+      <c r="X71">
+        <v>-488</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-130</v>
+      </c>
+      <c r="AA71">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>456</v>
+      </c>
+      <c r="D72">
+        <v>4006</v>
+      </c>
+      <c r="E72">
+        <v>3522</v>
+      </c>
+      <c r="F72">
+        <v>1589</v>
+      </c>
+      <c r="G72">
+        <v>8303</v>
+      </c>
+      <c r="H72">
+        <v>14806</v>
+      </c>
+      <c r="I72">
+        <v>217</v>
+      </c>
+      <c r="J72">
+        <v>649</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2537</v>
+      </c>
+      <c r="O72">
+        <v>4158</v>
+      </c>
+      <c r="P72">
+        <v>749</v>
+      </c>
+      <c r="Q72">
+        <v>-698</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>268900</v>
+      </c>
+      <c r="T72">
+        <v>10648</v>
+      </c>
+      <c r="U72">
+        <v>901</v>
+      </c>
+      <c r="V72">
+        <v>640</v>
+      </c>
+      <c r="W72">
+        <v>-118</v>
+      </c>
+      <c r="X72">
+        <v>-734</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-16</v>
+      </c>
+      <c r="AA72">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>477</v>
+      </c>
+      <c r="D73">
+        <v>4078</v>
+      </c>
+      <c r="E73">
+        <v>3507</v>
+      </c>
+      <c r="F73">
+        <v>1598</v>
+      </c>
+      <c r="G73">
+        <v>8727</v>
+      </c>
+      <c r="H73">
+        <v>15274</v>
+      </c>
+      <c r="I73">
+        <v>223</v>
+      </c>
+      <c r="J73">
+        <v>624</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2693</v>
+      </c>
+      <c r="O73">
+        <v>4296</v>
+      </c>
+      <c r="P73">
+        <v>724</v>
+      </c>
+      <c r="Q73">
+        <v>438</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>274200</v>
+      </c>
+      <c r="T73">
+        <v>10978</v>
+      </c>
+      <c r="U73">
+        <v>1339</v>
+      </c>
+      <c r="V73">
+        <v>862</v>
+      </c>
+      <c r="W73">
+        <v>-116</v>
+      </c>
+      <c r="X73">
+        <v>-146</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-171</v>
+      </c>
+      <c r="AA73">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>648</v>
+      </c>
+      <c r="D74">
+        <v>4129</v>
+      </c>
+      <c r="E74">
+        <v>3495</v>
+      </c>
+      <c r="F74">
+        <v>1589</v>
+      </c>
+      <c r="G74">
+        <v>8610</v>
+      </c>
+      <c r="H74">
+        <v>15846</v>
+      </c>
+      <c r="I74">
+        <v>215</v>
+      </c>
+      <c r="J74">
+        <v>736</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2710</v>
+      </c>
+      <c r="O74">
+        <v>4422</v>
+      </c>
+      <c r="P74">
+        <v>745</v>
+      </c>
+      <c r="Q74">
+        <v>-178</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>281600</v>
+      </c>
+      <c r="T74">
+        <v>11424</v>
+      </c>
+      <c r="U74">
+        <v>1161</v>
+      </c>
+      <c r="V74">
+        <v>702</v>
+      </c>
+      <c r="W74">
+        <v>-116</v>
+      </c>
+      <c r="X74">
+        <v>-325</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>178</v>
+      </c>
+      <c r="AA74">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>441</v>
+      </c>
+      <c r="D75">
+        <v>4110</v>
+      </c>
+      <c r="E75">
+        <v>3712</v>
+      </c>
+      <c r="F75">
+        <v>1535</v>
+      </c>
+      <c r="G75">
+        <v>7883</v>
+      </c>
+      <c r="H75">
+        <v>16096</v>
+      </c>
+      <c r="I75">
+        <v>262</v>
+      </c>
+      <c r="J75">
+        <v>727</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-2</v>
+      </c>
+      <c r="N75">
+        <v>2720</v>
+      </c>
+      <c r="O75">
+        <v>4960</v>
+      </c>
+      <c r="P75">
+        <v>1611</v>
+      </c>
+      <c r="Q75">
+        <v>-211</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>285800</v>
+      </c>
+      <c r="T75">
+        <v>11136</v>
+      </c>
+      <c r="U75">
+        <v>950</v>
+      </c>
+      <c r="V75">
+        <v>269</v>
+      </c>
+      <c r="W75">
+        <v>-116</v>
+      </c>
+      <c r="X75">
+        <v>-839</v>
+      </c>
+      <c r="Y75">
+        <v>668</v>
+      </c>
+      <c r="Z75">
+        <v>659</v>
+      </c>
+      <c r="AA75">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>509</v>
+      </c>
+      <c r="D76">
+        <v>4141</v>
+      </c>
+      <c r="E76">
+        <v>3736</v>
+      </c>
+      <c r="F76">
+        <v>1512</v>
+      </c>
+      <c r="G76">
+        <v>7206</v>
+      </c>
+      <c r="H76">
+        <v>15517</v>
+      </c>
+      <c r="I76">
+        <v>254</v>
+      </c>
+      <c r="J76">
+        <v>718</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2824</v>
+      </c>
+      <c r="O76">
+        <v>4960</v>
+      </c>
+      <c r="P76">
+        <v>1654</v>
+      </c>
+      <c r="Q76">
+        <v>710</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>288200</v>
+      </c>
+      <c r="T76">
+        <v>10557</v>
+      </c>
+      <c r="U76">
+        <v>1660</v>
+      </c>
+      <c r="V76">
+        <v>575</v>
+      </c>
+      <c r="W76">
+        <v>-116</v>
+      </c>
+      <c r="X76">
+        <v>-1137</v>
+      </c>
+      <c r="Y76">
+        <v>695</v>
+      </c>
+      <c r="Z76">
+        <v>1398</v>
+      </c>
+      <c r="AA76">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>497</v>
+      </c>
+      <c r="D77">
+        <v>4248</v>
+      </c>
+      <c r="E77">
+        <v>3803</v>
+      </c>
+      <c r="F77">
+        <v>1567</v>
+      </c>
+      <c r="G77">
+        <v>7391</v>
+      </c>
+      <c r="H77">
+        <v>15844</v>
+      </c>
+      <c r="I77">
+        <v>246</v>
+      </c>
+      <c r="J77">
+        <v>709</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2919</v>
+      </c>
+      <c r="O77">
+        <v>5142</v>
+      </c>
+      <c r="P77">
+        <v>1700</v>
+      </c>
+      <c r="Q77">
+        <v>683</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>289900</v>
+      </c>
+      <c r="T77">
+        <v>10702</v>
+      </c>
+      <c r="U77">
+        <v>2343</v>
+      </c>
+      <c r="V77">
+        <v>717</v>
+      </c>
+      <c r="W77">
+        <v>-111</v>
+      </c>
+      <c r="X77">
+        <v>-340</v>
+      </c>
+      <c r="Y77">
+        <v>748</v>
+      </c>
+      <c r="Z77">
+        <v>583</v>
+      </c>
+      <c r="AA77">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>395</v>
+      </c>
+      <c r="D78">
+        <v>4284</v>
+      </c>
+      <c r="E78">
+        <v>3590</v>
+      </c>
+      <c r="F78">
+        <v>1560</v>
+      </c>
+      <c r="G78">
+        <v>7611</v>
+      </c>
+      <c r="H78">
+        <v>16204</v>
+      </c>
+      <c r="I78">
+        <v>239</v>
+      </c>
+      <c r="J78">
+        <v>700</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2983</v>
+      </c>
+      <c r="O78">
+        <v>5182</v>
+      </c>
+      <c r="P78">
+        <v>1711</v>
+      </c>
+      <c r="Q78">
+        <v>302</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>292500</v>
+      </c>
+      <c r="T78">
+        <v>11022</v>
+      </c>
+      <c r="U78">
+        <v>2645</v>
+      </c>
+      <c r="V78">
+        <v>938</v>
+      </c>
+      <c r="W78">
+        <v>-110</v>
+      </c>
+      <c r="X78">
+        <v>-253</v>
+      </c>
+      <c r="Y78">
+        <v>760</v>
+      </c>
+      <c r="Z78">
+        <v>-43</v>
+      </c>
+      <c r="AA78">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>367</v>
+      </c>
+      <c r="D79">
+        <v>4225</v>
+      </c>
+      <c r="E79">
+        <v>3579</v>
+      </c>
+      <c r="F79">
+        <v>1484</v>
+      </c>
+      <c r="G79">
+        <v>8325</v>
+      </c>
+      <c r="H79">
+        <v>17429</v>
+      </c>
+      <c r="I79">
+        <v>289</v>
+      </c>
+      <c r="J79">
+        <v>2430</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-13</v>
+      </c>
+      <c r="N79">
+        <v>2872</v>
+      </c>
+      <c r="O79">
+        <v>6816</v>
+      </c>
+      <c r="P79">
+        <v>3399</v>
+      </c>
+      <c r="Q79">
+        <v>1241</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>291700</v>
+      </c>
+      <c r="T79">
+        <v>10613</v>
+      </c>
+      <c r="U79">
+        <v>3886</v>
+      </c>
+      <c r="V79">
+        <v>497</v>
+      </c>
+      <c r="W79">
+        <v>-121</v>
+      </c>
+      <c r="X79">
+        <v>1135</v>
+      </c>
+      <c r="Y79">
+        <v>734</v>
+      </c>
+      <c r="Z79">
+        <v>-74</v>
+      </c>
+      <c r="AA79">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>361</v>
+      </c>
+      <c r="D80">
+        <v>4000</v>
+      </c>
+      <c r="E80">
+        <v>3547</v>
+      </c>
+      <c r="F80">
+        <v>1410</v>
+      </c>
+      <c r="G80">
+        <v>8531</v>
+      </c>
+      <c r="H80">
+        <v>18216</v>
+      </c>
+      <c r="I80">
+        <v>359</v>
+      </c>
+      <c r="J80">
+        <v>2421</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3212</v>
+      </c>
+      <c r="O80">
+        <v>7244</v>
+      </c>
+      <c r="P80">
+        <v>3467</v>
+      </c>
+      <c r="Q80">
+        <v>536</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>281200</v>
+      </c>
+      <c r="T80">
+        <v>10972</v>
+      </c>
+      <c r="U80">
+        <v>4422</v>
+      </c>
+      <c r="V80">
+        <v>979</v>
+      </c>
+      <c r="W80">
+        <v>-121</v>
+      </c>
+      <c r="X80">
+        <v>-171</v>
+      </c>
+      <c r="Y80">
+        <v>802</v>
+      </c>
+      <c r="Z80">
+        <v>237</v>
+      </c>
+      <c r="AA80">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>348</v>
+      </c>
+      <c r="D81">
+        <v>4243</v>
+      </c>
+      <c r="E81">
+        <v>3451</v>
+      </c>
+      <c r="F81">
+        <v>1617</v>
+      </c>
+      <c r="G81">
+        <v>8619</v>
+      </c>
+      <c r="H81">
+        <v>18787</v>
+      </c>
+      <c r="I81">
+        <v>420</v>
+      </c>
+      <c r="J81">
+        <v>2412</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3296</v>
+      </c>
+      <c r="O81">
+        <v>7647</v>
+      </c>
+      <c r="P81">
+        <v>3483</v>
+      </c>
+      <c r="Q81">
+        <v>14</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>283100</v>
+      </c>
+      <c r="T81">
+        <v>11140</v>
+      </c>
+      <c r="U81">
+        <v>4436</v>
+      </c>
+      <c r="V81">
+        <v>925</v>
+      </c>
+      <c r="W81">
+        <v>-120</v>
+      </c>
+      <c r="X81">
+        <v>-347</v>
+      </c>
+      <c r="Y81">
+        <v>820</v>
+      </c>
+      <c r="Z81">
+        <v>26</v>
+      </c>
+      <c r="AA81">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>316</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4184</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>3402</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1539</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>6851</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>16923</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>389</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>663</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3540</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6087</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1780</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1756</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>289500</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>10836</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2680</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>898</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-118</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-2626</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>857</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>94</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>316</v>
       </c>
     </row>
